--- a/コミット間の差異.xlsx
+++ b/コミット間の差異.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/650d1aa9b43dfa67/Git Repository/PowerShellLib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A2123F-4763-42F9-A816-BE625AF6FD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="13_ncr:1_{C7A2123F-4763-42F9-A816-BE625AF6FD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C10EDDD-E3D7-4850-AFA9-B5D868474BAD}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1260" windowWidth="24465" windowHeight="14580" xr2:uid="{32732D6C-F73C-4E0C-8615-2503AE21888C}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="24465" windowHeight="14565" xr2:uid="{32732D6C-F73C-4E0C-8615-2503AE21888C}"/>
   </bookViews>
   <sheets>
-    <sheet name="コミット間の差異" sheetId="1" r:id="rId1"/>
+    <sheet name="コミット間の差異" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,14 +33,32 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>https://github.com/hunandy14/JavaWeb_Part3/commit/503cdfcb16c3317a82d5716af591e3b479602a86</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://github.com/hunandy14/JavaWeb_Part3/commit/905865469a6c0d97f44d78c5a106269e0ac41682</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -52,15 +70,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドメイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リザルト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コミット間の差異</t>
+    <t>Bプロジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aプロジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>コミット間の差異の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BIZ UDMincho Medium"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サイト</t>
+    </r>
     <rPh sb="4" eb="5">
       <t>カン</t>
     </rPh>
@@ -69,12 +103,37 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A コミット　/　ブランチ名前</t>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A コミット　/　ブランチ名前　（必ずサイト入力して）</t>
+    <rPh sb="17" eb="18">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,19 +165,27 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BIZ UDMincho Medium"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -156,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,32 +236,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -510,81 +592,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA41926-4E7F-4B84-812F-BAF5C00E32A9}">
-  <dimension ref="A1:R17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFE7026-D9BE-43E6-861A-33EEE3A685B5}">
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="19.5" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="17" width="8.88671875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="3" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2" hidden="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="2:19"/>
+    <row r="2" spans="2:19">
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" ht="5.25" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="2:19">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -600,13 +668,11 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="2:19" ht="5.25" customHeight="1">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -622,196 +688,331 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="11" t="s">
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="8" t="str">
-        <f>HYPERLINK(C14)</f>
-        <v>https://github.com/hunandy14/JavaWeb_Part3/compare/503cdfcb16c3317a82d5716af591e3b479602a86...905865469a6c0d97f44d78c5a106269e0ac41682</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="3" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="17" t="str">
+        <f>IFERROR(D18, "比較することができない")</f>
+        <v>https://github.com/hunandy14/JavaWeb_Part3/compare/master...503cdfcb16c3317a82d5716af591e3b479602a86</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="str">
-        <f>LEFT(A2,FIND("/commit/",A2))</f>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14" t="str">
+        <f>LEFT(B3,FIND("/commit",B3))</f>
         <v>https://github.com/hunandy14/JavaWeb_Part3/</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="12" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14" t="str">
+        <f>IFERROR(LEFT(B7,FIND("/commit",B7)),"")</f>
+        <v/>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="str">
-        <f>MID(A2,FIND("*",SUBSTITUTE(A2,"/","*",LEN(A2)-LEN(SUBSTITUTE(A2,"/",""))))+1,LEN(A2))</f>
+      <c r="C15" s="12"/>
+      <c r="D15" s="16" t="str">
+        <f>RIGHT(B3,LEN(B3)-FIND("/", B3, FIND("commit",B3)))</f>
         <v>503cdfcb16c3317a82d5716af591e3b479602a86</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="3" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="16" t="str">
+        <f>IFERROR(RIGHT(B7,LEN(B7)-FIND("/", B7, FIND("commit",B7))),B7)</f>
+        <v>master</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="B17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="16" t="str">
+        <f>_xlfn.CONCAT(D13, "compare/", D16, "...",D15)</f>
+        <v>https://github.com/hunandy14/JavaWeb_Part3/compare/master...503cdfcb16c3317a82d5716af591e3b479602a86</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="str">
-        <f>MID(A5,FIND("*",SUBSTITUTE(A5,"/","*",LEN(A5)-LEN(SUBSTITUTE(A5,"/",""))))+1,LEN(A5))</f>
-        <v>905865469a6c0d97f44d78c5a106269e0ac41682</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="str">
-        <f>_xlfn.CONCAT(C11, "compare/", C12, "...",C13)</f>
-        <v>https://github.com/hunandy14/JavaWeb_Part3/compare/503cdfcb16c3317a82d5716af591e3b479602a86...905865469a6c0d97f44d78c5a106269e0ac41682</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="6"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="16" t="str" cm="1">
+        <f t="array" ref="D18">_xlfn.IFS(D14=D13,D17,D14="",D17)</f>
+        <v>https://github.com/hunandy14/JavaWeb_Part3/compare/master...503cdfcb16c3317a82d5716af591e3b479602a86</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="2:19"/>
+    <row r="22" spans="2:19" hidden="1">
+      <c r="C22" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C12:R12"/>
-    <mergeCell ref="C11:R11"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="C14:R14"/>
-    <mergeCell ref="C13:R13"/>
+  <mergeCells count="19">
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:Q14"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B10:Q11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="D16:Q16"/>
+    <mergeCell ref="D17:Q17"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B3:Q4"/>
+    <mergeCell ref="B7:Q8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{50876D9B-F202-4FCA-8AAB-9AC596A1B1B3}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{4B4BE444-A3D0-4DFD-B065-40E44D77E5C8}"/>
+    <hyperlink ref="B7" r:id="rId1" display="https://github.com/hunandy14/JavaWeb_Part31/commit/503cdfcb16c3317a82d5716af591e3b479602a86" xr:uid="{4554ADF8-6AA8-41DE-A842-EA07A02E791C}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0A2D54C7-F4AD-4396-81A4-3F03907DC805}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
